--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/7 PRUEBA DE BAJAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/7 PRUEBA DE BAJAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEDC524-68F4-47E9-9BBF-1A4486E8219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,19 +52,10 @@
     <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve">                                         AUDITORIA FINANCIERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                EMPRESA YYY. S. A .</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                 Responsable</t>
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           PRUEBA DE BAJAS</t>
   </si>
   <si>
     <t>Descripción</t>
@@ -154,16 +140,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>F-6</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>AUDITORIA FINANCIERA</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA DE BAJAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -391,9 +386,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,6 +418,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +462,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D546D8-61D5-48B5-BE3F-DC2F197C992D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,7 +517,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357CC929-BBA3-4C3B-83EF-012783752697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -574,7 +572,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7A4C64-07CC-4F71-B9E3-26D5D20E01AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,7 +640,7 @@
         <xdr:cNvPr id="7" name="Triángulo isósceles 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C06A8B-F4A4-4998-AA59-1BD3F6DDE7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,67 +684,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-GT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885825" y="409575"/>
-          <a:ext cx="1152525" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
           <a:endParaRPr lang="es-GT" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1052,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1067,12 +1004,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,153 +1022,159 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="20" t="s">
-        <v>38</v>
+      <c r="H3" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="G6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="G8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="11" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="G8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D12" s="14">
+        <v>45291</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12" t="s">
+    </row>
+    <row r="13" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15">
-        <v>45291</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="D14" s="14">
+        <v>45288</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12" t="s">
+    </row>
+    <row r="15" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15">
-        <v>45288</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="D16" s="14">
+        <v>45290</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="15">
-        <v>45290</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
@@ -1258,27 +1201,27 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="B24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -1294,15 +1237,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B24:F26"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
